--- a/data/trans_camb/CoTrAQ_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/CoTrAQ_R2-Estudios-trans_camb.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.0464905682627</v>
+        <v>13.83036276487428</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.229276489782336</v>
+        <v>7.810717419079024</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14.1963644966344</v>
+        <v>14.4927063626056</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>33.66286550199605</v>
+        <v>32.76807822930355</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>34.22618620101103</v>
+        <v>34.14414235004358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29.87825303972127</v>
+        <v>30.72776824200177</v>
       </c>
     </row>
     <row r="7">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.7404138227001081</v>
+        <v>0.8541517862295818</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2174468973383974</v>
+        <v>0.3267245895869714</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.7628699148872867</v>
+        <v>0.760282328779502</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>4.017257141985106</v>
+        <v>4.048972111446517</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.356769683030053</v>
+        <v>2.299665687159726</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.415228733279</v>
+        <v>2.602043543625749</v>
       </c>
     </row>
     <row r="10">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.726756249356844</v>
+        <v>6.57478929965641</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.715902042923299</v>
+        <v>8.303002662666648</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8.452251977303105</v>
+        <v>8.49003543524227</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.57208369282053</v>
+        <v>13.95632884371699</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.45532197049952</v>
+        <v>18.18191675358092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.90248750814056</v>
+        <v>14.59971106745252</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3887562142964764</v>
+        <v>0.3783504835248074</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4156373404054</v>
+        <v>0.3889014482968757</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4746528210711978</v>
+        <v>0.4614020121826192</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.066472955989417</v>
+        <v>0.9993759207819672</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.212220040386526</v>
+        <v>1.161105229574751</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9893374588561915</v>
+        <v>0.9640457613107464</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.550984484277795</v>
+        <v>2.046683250373434</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1588078730675298</v>
+        <v>1.76386631057046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.036253323229857</v>
+        <v>3.706915186122887</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.16866902216583</v>
+        <v>12.68218418438371</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>14.69448726073118</v>
+        <v>15.27135732579022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12.00150082652958</v>
+        <v>12.10616503463498</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2147788392411996</v>
+        <v>0.1866111021286112</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.008876722070980083</v>
+        <v>0.05457663618481392</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.3289134632898462</v>
+        <v>0.302650256352671</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.444819832752141</v>
+        <v>2.05643046433286</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.582849239483467</v>
+        <v>1.681600921035864</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.555462922589031</v>
+        <v>1.570397863946439</v>
       </c>
     </row>
     <row r="22">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.971517802380709</v>
+        <v>8.087568519908741</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>8.036244463534928</v>
+        <v>7.402654139698456</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9.039117297390735</v>
+        <v>8.880610010913518</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.19195751579499</v>
+        <v>14.20408581697521</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>15.82238546725649</v>
+        <v>15.67587662396734</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13.74708874213421</v>
+        <v>13.86841107361375</v>
       </c>
     </row>
     <row r="25">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.544432106833793</v>
+        <v>0.5618639993264055</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4094367159228477</v>
+        <v>0.3818544315572818</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.5636420006650317</v>
+        <v>0.5562045791861084</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.218059481043602</v>
+        <v>1.20499322660661</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.067276496156413</v>
+        <v>1.035751340337822</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.011312431231482</v>
+        <v>1.018050678857196</v>
       </c>
     </row>
     <row r="28">
